--- a/data/raw-data/human_cases.xlsx
+++ b/data/raw-data/human_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewruiz/MADA_course/RUIZ-MADA-project/data/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E76D2-B590-1246-B6D2-E1A5483CD0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4A82C-6A3B-B344-8395-A40451678966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45440" yWindow="2540" windowWidth="28880" windowHeight="14440" xr2:uid="{2A27190A-CE97-F44C-A2FE-D34928CFD6DA}"/>
+    <workbookView xWindow="14540" yWindow="2640" windowWidth="28880" windowHeight="14440" xr2:uid="{2A27190A-CE97-F44C-A2FE-D34928CFD6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="109">
   <si>
     <t>County</t>
   </si>
@@ -274,13 +274,106 @@
   </si>
   <si>
     <t>60 – 64y</t>
+  </si>
+  <si>
+    <t>&gt;64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningoencephalitis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex  </t>
+  </si>
+  <si>
+    <t>40-64</t>
+  </si>
+  <si>
+    <t>Acute febrile illness</t>
+  </si>
+  <si>
+    <t>Berkshire </t>
+  </si>
+  <si>
+    <t>&gt;64 </t>
+  </si>
+  <si>
+    <t>WNV </t>
+  </si>
+  <si>
+    <t>Meningoencephalitis </t>
+  </si>
+  <si>
+    <t>Bristol </t>
+  </si>
+  <si>
+    <t>40-64 </t>
+  </si>
+  <si>
+    <t>WNV Fever </t>
+  </si>
+  <si>
+    <t>Hampden </t>
+  </si>
+  <si>
+    <t>Meningitis </t>
+  </si>
+  <si>
+    <t>Middlesex </t>
+  </si>
+  <si>
+    <t>WNV fever </t>
+  </si>
+  <si>
+    <t>25-39 </t>
+  </si>
+  <si>
+    <t>Norfolk </t>
+  </si>
+  <si>
+    <t>18-39 </t>
+  </si>
+  <si>
+    <t>Plymouth </t>
+  </si>
+  <si>
+    <t>Suffolk </t>
+  </si>
+  <si>
+    <t>Worcester </t>
+  </si>
+  <si>
+    <t>&gt;80 </t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>Essex </t>
+  </si>
+  <si>
+    <t>51-60 </t>
+  </si>
+  <si>
+    <t>71-80 </t>
+  </si>
+  <si>
+    <t>31-40 </t>
+  </si>
+  <si>
+    <t>61-70 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +386,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,12 +420,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,14 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33249008-FDD7-8040-B6AD-DEAAE394D83E}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="10.83203125" style="5"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,7 +783,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -690,7 +800,7 @@
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>41862</v>
       </c>
       <c r="D2" t="s">
@@ -707,7 +817,7 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>41873</v>
       </c>
       <c r="D3" t="s">
@@ -724,7 +834,7 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>41881</v>
       </c>
       <c r="D4" t="s">
@@ -741,7 +851,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>41887</v>
       </c>
       <c r="D5" t="s">
@@ -758,7 +868,7 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>41897</v>
       </c>
       <c r="D6" t="s">
@@ -775,7 +885,7 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>41910</v>
       </c>
       <c r="D7" t="s">
@@ -792,7 +902,7 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>42230</v>
       </c>
       <c r="D8" t="s">
@@ -809,7 +919,7 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>42250</v>
       </c>
       <c r="D9" t="s">
@@ -826,7 +936,7 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>42251</v>
       </c>
       <c r="D10" t="s">
@@ -843,7 +953,7 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>42253</v>
       </c>
       <c r="D11" t="s">
@@ -860,7 +970,7 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>42254</v>
       </c>
       <c r="D12" t="s">
@@ -877,7 +987,7 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>42260</v>
       </c>
       <c r="D13" t="s">
@@ -894,7 +1004,7 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>42262</v>
       </c>
       <c r="D14" t="s">
@@ -911,7 +1021,7 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>42262</v>
       </c>
       <c r="D15" t="s">
@@ -928,7 +1038,7 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>42263</v>
       </c>
       <c r="D16" t="s">
@@ -945,7 +1055,7 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>42286</v>
       </c>
       <c r="D17" t="s">
@@ -962,7 +1072,7 @@
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>42577</v>
       </c>
       <c r="D18" t="s">
@@ -979,7 +1089,7 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>42591</v>
       </c>
       <c r="D19" t="s">
@@ -996,7 +1106,7 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>42601</v>
       </c>
       <c r="D20" t="s">
@@ -1013,7 +1123,7 @@
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>42606</v>
       </c>
       <c r="D21" t="s">
@@ -1030,7 +1140,7 @@
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>42607</v>
       </c>
       <c r="D22" t="s">
@@ -1047,7 +1157,7 @@
       <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>42610</v>
       </c>
       <c r="D23" t="s">
@@ -1064,7 +1174,7 @@
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>42615</v>
       </c>
       <c r="D24" t="s">
@@ -1081,7 +1191,7 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>42617</v>
       </c>
       <c r="D25" t="s">
@@ -1098,7 +1208,7 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>42618</v>
       </c>
       <c r="D26" t="s">
@@ -1115,7 +1225,7 @@
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>42621</v>
       </c>
       <c r="D27" t="s">
@@ -1132,7 +1242,7 @@
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>42622</v>
       </c>
       <c r="D28" t="s">
@@ -1149,7 +1259,7 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>42628</v>
       </c>
       <c r="D29" t="s">
@@ -1166,7 +1276,7 @@
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>42631</v>
       </c>
       <c r="D30" t="s">
@@ -1183,7 +1293,7 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>42639</v>
       </c>
       <c r="D31" t="s">
@@ -1200,7 +1310,7 @@
       <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>42641</v>
       </c>
       <c r="D32" t="s">
@@ -1217,7 +1327,7 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>42649</v>
       </c>
       <c r="D33" t="s">
@@ -1234,7 +1344,7 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>42962</v>
       </c>
       <c r="D34" t="s">
@@ -1251,7 +1361,7 @@
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>42988</v>
       </c>
       <c r="D35" t="s">
@@ -1268,7 +1378,7 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>43009</v>
       </c>
       <c r="D36" t="s">
@@ -1285,7 +1395,7 @@
       <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>43011</v>
       </c>
       <c r="D37" t="s">
@@ -1302,7 +1412,7 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>43023</v>
       </c>
       <c r="D38" t="s">
@@ -1319,7 +1429,7 @@
       <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>43027</v>
       </c>
       <c r="D39" t="s">
@@ -1336,7 +1446,7 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>43304</v>
       </c>
       <c r="D40" t="s">
@@ -1353,7 +1463,7 @@
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>43309</v>
       </c>
       <c r="D41" t="s">
@@ -1370,7 +1480,7 @@
       <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <v>43313</v>
       </c>
       <c r="D42" t="s">
@@ -1387,7 +1497,7 @@
       <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <v>43322</v>
       </c>
       <c r="D43" t="s">
@@ -1404,7 +1514,7 @@
       <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5">
         <v>43324</v>
       </c>
       <c r="D44" t="s">
@@ -1421,7 +1531,7 @@
       <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5">
         <v>43329</v>
       </c>
       <c r="D45" t="s">
@@ -1438,7 +1548,7 @@
       <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>43330</v>
       </c>
       <c r="D46" t="s">
@@ -1455,7 +1565,7 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>43331</v>
       </c>
       <c r="D47" t="s">
@@ -1472,7 +1582,7 @@
       <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5">
         <v>43333</v>
       </c>
       <c r="D48" t="s">
@@ -1489,7 +1599,7 @@
       <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5">
         <v>43333</v>
       </c>
       <c r="D49" t="s">
@@ -1506,7 +1616,7 @@
       <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5">
         <v>43335</v>
       </c>
       <c r="D50" t="s">
@@ -1523,7 +1633,7 @@
       <c r="B51" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>43335</v>
       </c>
       <c r="D51" t="s">
@@ -1540,7 +1650,7 @@
       <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>43336</v>
       </c>
       <c r="D52" t="s">
@@ -1557,7 +1667,7 @@
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>43338</v>
       </c>
       <c r="D53" t="s">
@@ -1574,7 +1684,7 @@
       <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>43338</v>
       </c>
       <c r="D54" t="s">
@@ -1591,7 +1701,7 @@
       <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>43339</v>
       </c>
       <c r="D55" t="s">
@@ -1608,7 +1718,7 @@
       <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>43342</v>
       </c>
       <c r="D56" t="s">
@@ -1625,7 +1735,7 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>43342</v>
       </c>
       <c r="D57" t="s">
@@ -1642,7 +1752,7 @@
       <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>43343</v>
       </c>
       <c r="D58" t="s">
@@ -1659,7 +1769,7 @@
       <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>43344</v>
       </c>
       <c r="D59" t="s">
@@ -1676,7 +1786,7 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>43345</v>
       </c>
       <c r="D60" t="s">
@@ -1693,7 +1803,7 @@
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>43346</v>
       </c>
       <c r="D61" t="s">
@@ -1710,7 +1820,7 @@
       <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5">
         <v>43347</v>
       </c>
       <c r="D62" t="s">
@@ -1727,7 +1837,7 @@
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5">
         <v>43347</v>
       </c>
       <c r="D63" t="s">
@@ -1744,7 +1854,7 @@
       <c r="B64" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>43348</v>
       </c>
       <c r="D64" t="s">
@@ -1761,7 +1871,7 @@
       <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>43351</v>
       </c>
       <c r="D65" t="s">
@@ -1778,7 +1888,7 @@
       <c r="B66" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5">
         <v>43355</v>
       </c>
       <c r="D66" t="s">
@@ -1795,7 +1905,7 @@
       <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>43355</v>
       </c>
       <c r="D67" t="s">
@@ -1812,7 +1922,7 @@
       <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>43356</v>
       </c>
       <c r="D68" t="s">
@@ -1829,7 +1939,7 @@
       <c r="B69" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>43358</v>
       </c>
       <c r="D69" t="s">
@@ -1846,7 +1956,7 @@
       <c r="B70" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5">
         <v>43359</v>
       </c>
       <c r="D70" t="s">
@@ -1863,7 +1973,7 @@
       <c r="B71" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5">
         <v>43359</v>
       </c>
       <c r="D71" t="s">
@@ -1880,7 +1990,7 @@
       <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>43360</v>
       </c>
       <c r="D72" t="s">
@@ -1897,7 +2007,7 @@
       <c r="B73" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>43360</v>
       </c>
       <c r="D73" t="s">
@@ -1914,7 +2024,7 @@
       <c r="B74" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>43360</v>
       </c>
       <c r="D74" t="s">
@@ -1931,7 +2041,7 @@
       <c r="B75" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>43361</v>
       </c>
       <c r="D75" t="s">
@@ -1948,7 +2058,7 @@
       <c r="B76" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>43362</v>
       </c>
       <c r="D76" t="s">
@@ -1965,7 +2075,7 @@
       <c r="B77" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="5">
         <v>43363</v>
       </c>
       <c r="D77" t="s">
@@ -1982,7 +2092,7 @@
       <c r="B78" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5">
         <v>43364</v>
       </c>
       <c r="D78" t="s">
@@ -1999,7 +2109,7 @@
       <c r="B79" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="5">
         <v>43364</v>
       </c>
       <c r="D79" t="s">
@@ -2016,7 +2126,7 @@
       <c r="B80" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="5">
         <v>43365</v>
       </c>
       <c r="D80" t="s">
@@ -2033,7 +2143,7 @@
       <c r="B81" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="5">
         <v>43367</v>
       </c>
       <c r="D81" t="s">
@@ -2050,7 +2160,7 @@
       <c r="B82" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="5">
         <v>43369</v>
       </c>
       <c r="D82" t="s">
@@ -2067,7 +2177,7 @@
       <c r="B83" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5">
         <v>43370</v>
       </c>
       <c r="D83" t="s">
@@ -2084,7 +2194,7 @@
       <c r="B84" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5">
         <v>43371</v>
       </c>
       <c r="D84" t="s">
@@ -2101,7 +2211,7 @@
       <c r="B85" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5">
         <v>43374</v>
       </c>
       <c r="D85" t="s">
@@ -2118,7 +2228,7 @@
       <c r="B86" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="5">
         <v>43381</v>
       </c>
       <c r="D86" t="s">
@@ -2135,7 +2245,7 @@
       <c r="B87" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="5">
         <v>43382</v>
       </c>
       <c r="D87" t="s">
@@ -2152,7 +2262,7 @@
       <c r="B88" t="s">
         <v>47</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="5">
         <v>43401</v>
       </c>
       <c r="D88" t="s">
@@ -2169,7 +2279,7 @@
       <c r="B89" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="5">
         <v>43676</v>
       </c>
       <c r="D89" t="s">
@@ -2186,7 +2296,7 @@
       <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="5">
         <v>43681</v>
       </c>
       <c r="D90" t="s">
@@ -2203,7 +2313,7 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="5">
         <v>43687</v>
       </c>
       <c r="D91" t="s">
@@ -2220,7 +2330,7 @@
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="5">
         <v>43693</v>
       </c>
       <c r="D92" t="s">
@@ -2237,7 +2347,7 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="5">
         <v>43708</v>
       </c>
       <c r="D93" t="s">
@@ -2254,7 +2364,7 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="5">
         <v>43709</v>
       </c>
       <c r="D94" t="s">
@@ -2271,7 +2381,7 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="5">
         <v>43709</v>
       </c>
       <c r="D95" t="s">
@@ -2288,7 +2398,7 @@
       <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="5">
         <v>43709</v>
       </c>
       <c r="D96" t="s">
@@ -2305,7 +2415,7 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="5">
         <v>43712</v>
       </c>
       <c r="D97" t="s">
@@ -2322,7 +2432,7 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="5">
         <v>43714</v>
       </c>
       <c r="D98" t="s">
@@ -2339,7 +2449,7 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="5">
         <v>43717</v>
       </c>
       <c r="D99" t="s">
@@ -2356,7 +2466,7 @@
       <c r="B100" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="5">
         <v>43720</v>
       </c>
       <c r="D100" t="s">
@@ -2373,7 +2483,7 @@
       <c r="B101" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="5">
         <v>43720</v>
       </c>
       <c r="D101" t="s">
@@ -2390,7 +2500,7 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="5">
         <v>43723</v>
       </c>
       <c r="D102" t="s">
@@ -2407,7 +2517,7 @@
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5">
         <v>43723</v>
       </c>
       <c r="D103" t="s">
@@ -2424,7 +2534,7 @@
       <c r="B104" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="5">
         <v>43726</v>
       </c>
       <c r="D104" t="s">
@@ -2441,7 +2551,7 @@
       <c r="B105" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="5">
         <v>43728</v>
       </c>
       <c r="D105" t="s">
@@ -2458,7 +2568,7 @@
       <c r="B106" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="5">
         <v>44032</v>
       </c>
       <c r="D106" t="s">
@@ -2475,7 +2585,7 @@
       <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="5">
         <v>44044</v>
       </c>
       <c r="D107" t="s">
@@ -2492,7 +2602,7 @@
       <c r="B108" t="s">
         <v>72</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="5">
         <v>44045</v>
       </c>
       <c r="D108" t="s">
@@ -2509,7 +2619,7 @@
       <c r="B109" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="5">
         <v>44051</v>
       </c>
       <c r="D109" t="s">
@@ -2526,7 +2636,7 @@
       <c r="B110" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="5">
         <v>44055</v>
       </c>
       <c r="D110" t="s">
@@ -2543,7 +2653,7 @@
       <c r="B111" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="5">
         <v>44057</v>
       </c>
       <c r="D111" t="s">
@@ -2560,7 +2670,7 @@
       <c r="B112" t="s">
         <v>74</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="5">
         <v>44062</v>
       </c>
       <c r="D112" t="s">
@@ -2577,7 +2687,7 @@
       <c r="B113" t="s">
         <v>75</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="5">
         <v>44064</v>
       </c>
       <c r="D113" t="s">
@@ -2594,7 +2704,7 @@
       <c r="B114" t="s">
         <v>76</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="5">
         <v>44066</v>
       </c>
       <c r="D114" t="s">
@@ -2611,7 +2721,7 @@
       <c r="B115" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="5">
         <v>44067</v>
       </c>
       <c r="D115" t="s">
@@ -2628,7 +2738,7 @@
       <c r="B116" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="5">
         <v>44070</v>
       </c>
       <c r="D116" t="s">
@@ -2645,7 +2755,7 @@
       <c r="B117" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="5">
         <v>44071</v>
       </c>
       <c r="D117" t="s">
@@ -2662,7 +2772,7 @@
       <c r="B118" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="5">
         <v>44083</v>
       </c>
       <c r="D118" t="s">
@@ -2679,7 +2789,7 @@
       <c r="B119" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="5">
         <v>44084</v>
       </c>
       <c r="D119" t="s">
@@ -2696,7 +2806,7 @@
       <c r="B120" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="5">
         <v>44092</v>
       </c>
       <c r="D120" t="s">
@@ -2713,7 +2823,7 @@
       <c r="B121" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="5">
         <v>44105</v>
       </c>
       <c r="D121" t="s">
@@ -2721,6 +2831,839 @@
       </c>
       <c r="E121" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="5">
+        <v>41154</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="5">
+        <v>41158</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="5">
+        <v>41151</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="5">
+        <v>41118</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="5">
+        <v>41143</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" s="5">
+        <v>41155</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="5">
+        <v>41130</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="6">
+        <v>41131</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="6">
+        <v>41176</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="6">
+        <v>41125</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="6">
+        <v>41151</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="6">
+        <v>41155</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="6">
+        <v>41113</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="6">
+        <v>41123</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="6">
+        <v>41129</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="6">
+        <v>41131</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="6">
+        <v>41131</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" s="6">
+        <v>41138</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="6">
+        <v>41139</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="6">
+        <v>41143</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="6">
+        <v>41144</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="6">
+        <v>41155</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="6">
+        <v>41156</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="6">
+        <v>41157</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" s="6">
+        <v>41164</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="6">
+        <v>41139</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="6">
+        <v>41164</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="6">
+        <v>41166</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="6">
+        <v>41192</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="6">
+        <v>41147</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" s="6">
+        <v>41157</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" s="6">
+        <v>41162</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="6">
+        <v>41161</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="6">
+        <v>41165</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="6">
+        <v>41166</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="6">
+        <v>41139</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" s="6">
+        <v>41149</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="6">
+        <v>41155</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="6">
+        <v>41189</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="6">
+        <v>41196</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="6">
+        <v>41500</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163" s="6">
+        <v>41518</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" s="6">
+        <v>41531</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C165" s="6">
+        <v>41539</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C166" s="6">
+        <v>41513</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="6">
+        <v>41496</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="6">
+        <v>41504</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" s="6">
+        <v>41553</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170" s="6">
+        <v>41508</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
